--- a/polygon_graphs.xlsx
+++ b/polygon_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A518A-C3F3-453A-B767-AF5392CA0057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68477BFC-5029-4E0D-BE8E-62A3FEF09BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="20025" xr2:uid="{8CCFF548-237B-42FB-9AA6-9EFBDA614225}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="18360" xr2:uid="{8CCFF548-237B-42FB-9AA6-9EFBDA614225}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>P</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>-4;</t>
+  </si>
+  <si>
+    <t>18P</t>
+  </si>
+  <si>
+    <t>18 Q</t>
+  </si>
+  <si>
+    <t>indicies</t>
+  </si>
+  <si>
+    <t>sizes</t>
   </si>
 </sst>
 </file>
@@ -678,6 +690,779 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1793165872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fig</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 16</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>p</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FDF8-4FF2-9B67-979F136BC581}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>q</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FDF8-4FF2-9B67-979F136BC581}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1793164208"/>
+        <c:axId val="1793160048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1793164208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1793160048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1793160048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1793164208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -33843,7 +34628,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 16</a:t>
+              <a:t> 18</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -33888,7 +34673,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>p</c:v>
+            <c:v>p1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -33900,14 +34685,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$4:$A$28</c:f>
+              <c:f>Sheet1!$H$148:$H$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-10</c:v>
                 </c:pt>
@@ -33921,66 +34718,6 @@
                   <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="24">
                   <c:v>-10</c:v>
                 </c:pt>
               </c:numCache>
@@ -33988,10 +34725,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$28</c:f>
+              <c:f>Sheet1!$I$148:$I$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-10</c:v>
                 </c:pt>
@@ -34002,69 +34739,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
                   <c:v>-10</c:v>
                 </c:pt>
               </c:numCache>
@@ -34073,7 +34750,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FDF8-4FF2-9B67-979F136BC581}"/>
+              <c16:uniqueId val="{00000001-CED1-45E5-9A02-1C904759DBFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -34081,7 +34758,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>q</c:v>
+            <c:v>p2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -34093,268 +34770,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$4:$D$44</c:f>
+              <c:f>Sheet1!$H$153:$H$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-2</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-12</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-16</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-14</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-14</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$E$44</c:f>
+              <c:f>Sheet1!$I$153:$I$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-2</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-12</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34362,7 +34835,1269 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FDF8-4FF2-9B67-979F136BC581}"/>
+              <c16:uniqueId val="{00000000-BFC8-4DB4-A223-4D7CFA18A467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>P3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$158:$H$162</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$158:$I$162</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BFC8-4DB4-A223-4D7CFA18A467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>P4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$163:$H$167</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$163:$I$167</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BFC8-4DB4-A223-4D7CFA18A467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>P5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$168:$H$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$168:$I$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BFC8-4DB4-A223-4D7CFA18A467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>P6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$173:$H$177</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$173:$I$177</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BFC8-4DB4-A223-4D7CFA18A467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>q1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$148:$N$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$148:$O$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BFC8-4DB4-A223-4D7CFA18A467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>q2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$154:$N$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$154:$O$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BFC8-4DB4-A223-4D7CFA18A467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>q3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$160:$N$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$160:$O$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BFC8-4DB4-A223-4D7CFA18A467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>q4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$166:$N$170</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$166:$O$170</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-BFC8-4DB4-A223-4D7CFA18A467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>q5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$172:$N$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$172:$O$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-BFC8-4DB4-A223-4D7CFA18A467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>q6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$178:$N$182</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$178:$O$182</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-BFC8-4DB4-A223-4D7CFA18A467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>q7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$184:$N$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$184:$O$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-BFC8-4DB4-A223-4D7CFA18A467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>q8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$190:$N$194</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$190:$O$194</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-BFC8-4DB4-A223-4D7CFA18A467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>q9</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$196:$N$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$196:$O$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-BFC8-4DB4-A223-4D7CFA18A467}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:v>q10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$202:$N$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$202:$O$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-BFC8-4DB4-A223-4D7CFA18A467}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -34374,11 +36109,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1793164208"/>
-        <c:axId val="1793160048"/>
+        <c:axId val="426449264"/>
+        <c:axId val="426449680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1793164208"/>
+        <c:axId val="426449264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34398,6 +36133,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -34435,12 +36200,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1793160048"/>
+        <c:crossAx val="426449680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1793160048"/>
+        <c:axId val="426449680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34460,6 +36225,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -34497,7 +36292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1793164208"/>
+        <c:crossAx val="426449264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -34542,6 +36337,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -34578,6 +36380,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -34938,6 +36780,522 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -39591,7 +41949,7 @@
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
@@ -39627,7 +41985,7 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>309562</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
@@ -39663,7 +42021,7 @@
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>309562</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
@@ -39699,7 +42057,7 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>319087</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
@@ -39735,7 +42093,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -39771,7 +42129,7 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -39803,13 +42161,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -39841,16 +42199,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39872,6 +42230,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF619E7-00F6-5598-C6BE-6CEB8A46BABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -40220,10 +42614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57701C0F-08BD-47AE-A652-4EE7FFDB9385}">
-  <dimension ref="A2:U914"/>
+  <dimension ref="A2:X914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="L131" sqref="L131"/>
+    <sheetView tabSelected="1" topLeftCell="E144" workbookViewId="0">
+      <selection activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41074,7 +43468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>7</v>
       </c>
@@ -41088,7 +43482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>7</v>
       </c>
@@ -41102,7 +43496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>8</v>
       </c>
@@ -41116,7 +43510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>8</v>
       </c>
@@ -41130,7 +43524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6</v>
       </c>
@@ -41144,7 +43538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6</v>
       </c>
@@ -41158,7 +43552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -41172,7 +43566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -41186,7 +43580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6</v>
       </c>
@@ -41200,7 +43594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6</v>
       </c>
@@ -41214,7 +43608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>8</v>
       </c>
@@ -41228,7 +43622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>8</v>
       </c>
@@ -41242,7 +43636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>7</v>
       </c>
@@ -41256,7 +43650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>7</v>
       </c>
@@ -41270,7 +43664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>8</v>
       </c>
@@ -41283,11 +43677,11 @@
       <c r="E127">
         <v>8</v>
       </c>
-      <c r="U127" t="s">
+      <c r="X127" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8</v>
       </c>
@@ -41528,7 +43922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -41542,7 +43936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -41556,7 +43950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2</v>
       </c>
@@ -41569,8 +43963,23 @@
       <c r="E147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
+        <v>18</v>
+      </c>
+      <c r="J147" t="s">
+        <v>21</v>
+      </c>
+      <c r="N147" t="s">
+        <v>19</v>
+      </c>
+      <c r="P147" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2</v>
       </c>
@@ -41583,8 +43992,32 @@
       <c r="E148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>-10</v>
+      </c>
+      <c r="I148">
+        <v>-10</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>-2</v>
+      </c>
+      <c r="O148">
+        <v>-2</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -41597,8 +44030,26 @@
       <c r="E149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>10</v>
+      </c>
+      <c r="I149">
+        <v>-10</v>
+      </c>
+      <c r="N149">
+        <v>-2</v>
+      </c>
+      <c r="O149">
+        <v>-12</v>
+      </c>
+      <c r="P149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4</v>
       </c>
@@ -41611,8 +44062,26 @@
       <c r="E150">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>2</v>
+      </c>
+      <c r="H150">
+        <v>10</v>
+      </c>
+      <c r="I150">
+        <v>10</v>
+      </c>
+      <c r="N150">
+        <v>-12</v>
+      </c>
+      <c r="O150">
+        <v>-12</v>
+      </c>
+      <c r="P150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3</v>
       </c>
@@ -41625,8 +44094,26 @@
       <c r="E151">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>3</v>
+      </c>
+      <c r="H151">
+        <v>-10</v>
+      </c>
+      <c r="I151">
+        <v>10</v>
+      </c>
+      <c r="N151">
+        <v>-12</v>
+      </c>
+      <c r="O151">
+        <v>-2</v>
+      </c>
+      <c r="P151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3</v>
       </c>
@@ -41639,8 +44126,23 @@
       <c r="E152">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>4</v>
+      </c>
+      <c r="H152">
+        <v>-10</v>
+      </c>
+      <c r="I152">
+        <v>-10</v>
+      </c>
+      <c r="N152">
+        <v>-2</v>
+      </c>
+      <c r="O152">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4</v>
       </c>
@@ -41653,8 +44155,20 @@
       <c r="E153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>5</v>
+      </c>
+      <c r="H153">
+        <v>-8</v>
+      </c>
+      <c r="I153">
+        <v>-8</v>
+      </c>
+      <c r="J153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4</v>
       </c>
@@ -41667,8 +44181,29 @@
       <c r="E154">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>6</v>
+      </c>
+      <c r="H154">
+        <v>8</v>
+      </c>
+      <c r="I154">
+        <v>-8</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>4</v>
+      </c>
+      <c r="Q154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2</v>
       </c>
@@ -41681,8 +44216,26 @@
       <c r="E155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>7</v>
+      </c>
+      <c r="H155">
+        <v>8</v>
+      </c>
+      <c r="I155">
+        <v>8</v>
+      </c>
+      <c r="N155">
+        <v>-14</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2</v>
       </c>
@@ -41695,8 +44248,26 @@
       <c r="E156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <v>8</v>
+      </c>
+      <c r="H156">
+        <v>-8</v>
+      </c>
+      <c r="I156">
+        <v>8</v>
+      </c>
+      <c r="N156">
+        <v>-14</v>
+      </c>
+      <c r="O156">
+        <v>-14</v>
+      </c>
+      <c r="P156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -41709,8 +44280,26 @@
       <c r="E157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>9</v>
+      </c>
+      <c r="H157">
+        <v>-8</v>
+      </c>
+      <c r="I157">
+        <v>-8</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>-14</v>
+      </c>
+      <c r="P157">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -41723,8 +44312,26 @@
       <c r="E158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>10</v>
+      </c>
+      <c r="H158">
+        <v>-6</v>
+      </c>
+      <c r="I158">
+        <v>6</v>
+      </c>
+      <c r="J158">
+        <v>8</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2</v>
       </c>
@@ -41737,8 +44344,17 @@
       <c r="E159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>11</v>
+      </c>
+      <c r="H159">
+        <v>-6</v>
+      </c>
+      <c r="I159">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2</v>
       </c>
@@ -41751,8 +44367,29 @@
       <c r="E160">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>12</v>
+      </c>
+      <c r="H160">
+        <v>6</v>
+      </c>
+      <c r="I160">
+        <v>-6</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160">
+        <v>2</v>
+      </c>
+      <c r="P160">
+        <v>8</v>
+      </c>
+      <c r="Q160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -41765,8 +44402,26 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>13</v>
+      </c>
+      <c r="H161">
+        <v>6</v>
+      </c>
+      <c r="I161">
+        <v>6</v>
+      </c>
+      <c r="N161">
+        <v>-16</v>
+      </c>
+      <c r="O161">
+        <v>2</v>
+      </c>
+      <c r="P161">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -41779,8 +44434,26 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>14</v>
+      </c>
+      <c r="H162">
+        <v>-6</v>
+      </c>
+      <c r="I162">
+        <v>6</v>
+      </c>
+      <c r="N162">
+        <v>-16</v>
+      </c>
+      <c r="O162">
+        <v>-16</v>
+      </c>
+      <c r="P162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2</v>
       </c>
@@ -41793,8 +44466,29 @@
       <c r="E163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>15</v>
+      </c>
+      <c r="H163">
+        <v>4</v>
+      </c>
+      <c r="I163">
+        <v>4</v>
+      </c>
+      <c r="J163">
+        <v>12</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163">
+        <v>-16</v>
+      </c>
+      <c r="P163">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2</v>
       </c>
@@ -41807,8 +44501,23 @@
       <c r="E164">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>16</v>
+      </c>
+      <c r="H164">
+        <v>4</v>
+      </c>
+      <c r="I164">
+        <v>-4</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3</v>
       </c>
@@ -41821,8 +44530,17 @@
       <c r="E165">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>17</v>
+      </c>
+      <c r="H165">
+        <v>-4</v>
+      </c>
+      <c r="I165">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3</v>
       </c>
@@ -41835,8 +44553,29 @@
       <c r="E166">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>18</v>
+      </c>
+      <c r="H166">
+        <v>-4</v>
+      </c>
+      <c r="I166">
+        <v>4</v>
+      </c>
+      <c r="N166">
+        <v>-4</v>
+      </c>
+      <c r="O166">
+        <v>4</v>
+      </c>
+      <c r="P166">
+        <v>12</v>
+      </c>
+      <c r="Q166">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4</v>
       </c>
@@ -41849,8 +44588,23 @@
       <c r="E167">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>19</v>
+      </c>
+      <c r="H167">
+        <v>4</v>
+      </c>
+      <c r="I167">
+        <v>4</v>
+      </c>
+      <c r="N167">
+        <v>-18</v>
+      </c>
+      <c r="O167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>4</v>
       </c>
@@ -41863,8 +44617,26 @@
       <c r="E168">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>20</v>
+      </c>
+      <c r="H168">
+        <v>20</v>
+      </c>
+      <c r="I168">
+        <v>-8</v>
+      </c>
+      <c r="J168">
+        <v>16</v>
+      </c>
+      <c r="N168">
+        <v>-18</v>
+      </c>
+      <c r="O168">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3</v>
       </c>
@@ -41877,8 +44649,23 @@
       <c r="E169">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>21</v>
+      </c>
+      <c r="H169">
+        <v>20</v>
+      </c>
+      <c r="I169">
+        <v>8</v>
+      </c>
+      <c r="N169">
+        <v>-4</v>
+      </c>
+      <c r="O169">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>3</v>
       </c>
@@ -41891,8 +44678,23 @@
       <c r="E170">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>22</v>
+      </c>
+      <c r="H170">
+        <v>12</v>
+      </c>
+      <c r="I170">
+        <v>8</v>
+      </c>
+      <c r="N170">
+        <v>-4</v>
+      </c>
+      <c r="O170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>6</v>
       </c>
@@ -41905,8 +44707,17 @@
       <c r="E171">
         <v>6</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>23</v>
+      </c>
+      <c r="H171">
+        <v>12</v>
+      </c>
+      <c r="I171">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6</v>
       </c>
@@ -41919,8 +44730,26 @@
       <c r="E172">
         <v>6</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>24</v>
+      </c>
+      <c r="H172">
+        <v>20</v>
+      </c>
+      <c r="I172">
+        <v>-8</v>
+      </c>
+      <c r="N172">
+        <v>-6</v>
+      </c>
+      <c r="O172">
+        <v>6</v>
+      </c>
+      <c r="Q172">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5</v>
       </c>
@@ -41933,8 +44762,26 @@
       <c r="E173">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>25</v>
+      </c>
+      <c r="H173">
+        <v>14</v>
+      </c>
+      <c r="I173">
+        <v>-6</v>
+      </c>
+      <c r="J173">
+        <v>20</v>
+      </c>
+      <c r="N173">
+        <v>-16</v>
+      </c>
+      <c r="O173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>5</v>
       </c>
@@ -41947,8 +44794,23 @@
       <c r="E174">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>26</v>
+      </c>
+      <c r="H174">
+        <v>14</v>
+      </c>
+      <c r="I174">
+        <v>6</v>
+      </c>
+      <c r="N174">
+        <v>-16</v>
+      </c>
+      <c r="O174">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>6</v>
       </c>
@@ -41961,8 +44823,23 @@
       <c r="E175">
         <v>6</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>27</v>
+      </c>
+      <c r="H175">
+        <v>18</v>
+      </c>
+      <c r="I175">
+        <v>6</v>
+      </c>
+      <c r="N175">
+        <v>-6</v>
+      </c>
+      <c r="O175">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>6</v>
       </c>
@@ -41975,8 +44852,23 @@
       <c r="E176">
         <v>6</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>28</v>
+      </c>
+      <c r="H176">
+        <v>18</v>
+      </c>
+      <c r="I176">
+        <v>-6</v>
+      </c>
+      <c r="N176">
+        <v>-6</v>
+      </c>
+      <c r="O176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>7</v>
       </c>
@@ -41989,8 +44881,17 @@
       <c r="E177">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <v>29</v>
+      </c>
+      <c r="H177">
+        <v>14</v>
+      </c>
+      <c r="I177">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>7</v>
       </c>
@@ -42003,8 +44904,14 @@
       <c r="E178">
         <v>7</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N178">
+        <v>-8</v>
+      </c>
+      <c r="O178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>8</v>
       </c>
@@ -42017,8 +44924,14 @@
       <c r="E179">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N179">
+        <v>-14</v>
+      </c>
+      <c r="O179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8</v>
       </c>
@@ -42031,8 +44944,14 @@
       <c r="E180">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N180">
+        <v>-14</v>
+      </c>
+      <c r="O180">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>7</v>
       </c>
@@ -42045,8 +44964,14 @@
       <c r="E181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N181">
+        <v>-8</v>
+      </c>
+      <c r="O181">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>7</v>
       </c>
@@ -42059,8 +44984,14 @@
       <c r="E182">
         <v>7</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N182">
+        <v>-8</v>
+      </c>
+      <c r="O182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8</v>
       </c>
@@ -42074,7 +45005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8</v>
       </c>
@@ -42087,8 +45018,14 @@
       <c r="E184">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N184">
+        <v>-10</v>
+      </c>
+      <c r="O184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>7</v>
       </c>
@@ -42101,8 +45038,14 @@
       <c r="E185">
         <v>7</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N185">
+        <v>-12</v>
+      </c>
+      <c r="O185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>7</v>
       </c>
@@ -42115,8 +45058,14 @@
       <c r="E186">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N186">
+        <v>-12</v>
+      </c>
+      <c r="O186">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>5</v>
       </c>
@@ -42129,8 +45078,14 @@
       <c r="E187">
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N187">
+        <v>-10</v>
+      </c>
+      <c r="O187">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>5</v>
       </c>
@@ -42143,8 +45098,14 @@
       <c r="E188">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N188">
+        <v>-10</v>
+      </c>
+      <c r="O188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>6</v>
       </c>
@@ -42158,7 +45119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>6</v>
       </c>
@@ -42171,8 +45132,14 @@
       <c r="E190">
         <v>6</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N190">
+        <v>6</v>
+      </c>
+      <c r="O190">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>5</v>
       </c>
@@ -42185,8 +45152,14 @@
       <c r="E191">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N191">
+        <v>6</v>
+      </c>
+      <c r="O191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>5</v>
       </c>
@@ -42199,8 +45172,14 @@
       <c r="E192">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N192">
+        <v>20</v>
+      </c>
+      <c r="O192">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>7</v>
       </c>
@@ -42213,8 +45192,14 @@
       <c r="E193">
         <v>7</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N193">
+        <v>20</v>
+      </c>
+      <c r="O193">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>7</v>
       </c>
@@ -42227,8 +45212,14 @@
       <c r="E194">
         <v>7</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N194">
+        <v>6</v>
+      </c>
+      <c r="O194">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>8</v>
       </c>
@@ -42242,7 +45233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>8</v>
       </c>
@@ -42255,8 +45246,14 @@
       <c r="E196">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N196">
+        <v>8</v>
+      </c>
+      <c r="O196">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>9</v>
       </c>
@@ -42269,8 +45266,14 @@
       <c r="E197">
         <v>9</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N197">
+        <v>8</v>
+      </c>
+      <c r="O197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>9</v>
       </c>
@@ -42283,8 +45286,14 @@
       <c r="E198">
         <v>9</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N198">
+        <v>18</v>
+      </c>
+      <c r="O198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>10</v>
       </c>
@@ -42297,8 +45306,14 @@
       <c r="E199">
         <v>10</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N199">
+        <v>18</v>
+      </c>
+      <c r="O199">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10</v>
       </c>
@@ -42311,8 +45326,14 @@
       <c r="E200">
         <v>10</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N200">
+        <v>8</v>
+      </c>
+      <c r="O200">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>12</v>
       </c>
@@ -42326,7 +45347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>12</v>
       </c>
@@ -42339,8 +45360,14 @@
       <c r="E202">
         <v>12</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N202">
+        <v>16</v>
+      </c>
+      <c r="O202">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>11</v>
       </c>
@@ -42353,8 +45380,14 @@
       <c r="E203">
         <v>11</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N203">
+        <v>16</v>
+      </c>
+      <c r="O203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>11</v>
       </c>
@@ -42367,8 +45400,14 @@
       <c r="E204">
         <v>11</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N204">
+        <v>10</v>
+      </c>
+      <c r="O204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>12</v>
       </c>
@@ -42381,8 +45420,14 @@
       <c r="E205">
         <v>12</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N205">
+        <v>10</v>
+      </c>
+      <c r="O205">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>12</v>
       </c>
@@ -42395,8 +45440,14 @@
       <c r="E206">
         <v>12</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N206">
+        <v>16</v>
+      </c>
+      <c r="O206">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>10</v>
       </c>
@@ -42410,7 +45461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>10</v>
       </c>
